--- a/Mass Determination.xlsx
+++ b/Mass Determination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rollo\Documents\UAV Society Documents\Design Files\Sisyphus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19750603-426A-4FC4-A86D-6EBE7F64664E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789CFE3F-4650-4B60-8ECB-38A61ED07C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESC Mass" sheetId="1" r:id="rId1"/>
@@ -918,6 +918,20 @@
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -2719,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="137" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3341,7 +3355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EC4511-E166-40FE-ACB1-C0F65135EA6E}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+    <sheetView zoomScale="83" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
